--- a/exel/Administrator.xlsx
+++ b/exel/Administrator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\xampp\htdocs\web2general\Test_KTPM\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6C332B-B817-464B-82A3-1AF25DB1F058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D373F956-0185-4594-8D0F-F53DF33D741D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12564C8F-2FCA-463A-BA47-595687A66DDB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Họ tên</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>ninhtrantrong@gmail.com</t>
+  </si>
+  <si>
+    <t>123456a</t>
+  </si>
+  <si>
+    <t>123456ab</t>
+  </si>
+  <si>
+    <t>12356a7</t>
   </si>
 </sst>
 </file>
@@ -573,7 +582,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,11 +629,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="5">
-        <v>123456</v>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -643,11 +652,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="5">
-        <v>123456</v>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>7</v>
@@ -666,11 +675,11 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="5">
-        <v>123456</v>
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -689,11 +698,11 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="5">
-        <v>123456</v>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>18</v>
@@ -712,11 +721,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="5">
-        <v>123456</v>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>7</v>
@@ -735,11 +744,11 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>123456</v>
-      </c>
-      <c r="E7">
-        <v>123567</v>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
@@ -761,8 +770,8 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>123567</v>
+      <c r="E8" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>18</v>
@@ -781,11 +790,11 @@
       <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E9">
-        <v>123456</v>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>7</v>
@@ -827,8 +836,8 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
-        <v>1234</v>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E11">
         <v>1234</v>
@@ -850,8 +859,8 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5">
-        <v>456789</v>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E12">
         <v>456789</v>
